--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\09_ihanseol - 2024\20_음용수 - 건양레미콘 2개공 - 관정개발 - 산수개발\04_양수시험\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D065E3A-9808-4082-B1DB-A9C1967B4B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F144F-613A-4935-8099-0AF71B6B4CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="39120" yWindow="750" windowWidth="31185" windowHeight="20175" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>W-1</t>
   </si>
@@ -437,17 +437,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>소규모수도시설 수원공 사후관리 연장허가 용역</t>
-  </si>
-  <si>
-    <t>충청남도 부여군 초촌면 산직리 233-1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>산직지구</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>조사자</t>
   </si>
   <si>
@@ -506,6 +495,20 @@
   <si>
     <t>Company</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 보령시 남포면 양기리 285-1</t>
+  </si>
+  <si>
+    <t>W-2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>건양레미콘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)건양레미콘 지하수개발 이용허가를 위한 지하수영향조사</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
     <numFmt numFmtId="181" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="182" formatCode="#,##0;&quot;-&quot;#,##0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +632,23 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -789,13 +809,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,21 +825,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="24">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +839,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -860,7 +874,210 @@
     <cellStyle name="표준 2 3" xfId="22" xr:uid="{2C059BE8-8DE9-440B-871D-02E04FA57DC8}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{45FF3674-0159-4243-B7B4-B71CAAF105AC}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -936,260 +1153,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1206,31 +1173,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:L31" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:L31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="17">
   <autoFilter ref="A1:L31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:D17" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:D17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="D1:D17" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="1" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="14" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1539,116 +1506,141 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="47.375" customWidth="1"/>
-    <col min="11" max="11" width="26.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="28.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="39.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="47.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>34</v>
+      <c r="L1" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
+      <c r="B2" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>12</v>
       </c>
       <c r="E2" s="1">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.95" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
         <v>150</v>
       </c>
-      <c r="G2" s="1">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>46.5</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="F3" s="1">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1">
+        <v>150</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="21.95" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1657,12 +1649,12 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="21.95" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1671,12 +1663,12 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="21.95" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1685,12 +1677,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="21.95" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1699,12 +1691,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="21.95" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1713,12 +1705,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="21.95" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1727,8 +1719,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="21.95" customHeight="1">
       <c r="A10" s="1"/>
@@ -1741,8 +1733,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="21.95" customHeight="1">
       <c r="A11" s="1"/>
@@ -1755,8 +1747,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="21.95" customHeight="1">
       <c r="A12" s="1"/>
@@ -1769,8 +1761,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="21.95" customHeight="1">
       <c r="A13" s="1"/>
@@ -1783,8 +1775,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="21.95" customHeight="1">
       <c r="A14" s="1"/>
@@ -1797,8 +1789,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="21.95" customHeight="1">
       <c r="A15" s="1"/>
@@ -1811,8 +1803,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="21.95" customHeight="1">
       <c r="A16" s="1"/>
@@ -1825,8 +1817,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="21.95" customHeight="1">
       <c r="A17" s="1"/>
@@ -1839,8 +1831,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="21.95" customHeight="1">
       <c r="A18" s="1"/>
@@ -1853,8 +1845,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="21.95" customHeight="1">
       <c r="A19" s="1"/>
@@ -1867,8 +1859,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="21.95" customHeight="1">
       <c r="A20" s="1"/>
@@ -1881,8 +1873,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="21.95" customHeight="1">
       <c r="A21" s="1"/>
@@ -1895,8 +1887,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="21.95" customHeight="1">
       <c r="A22" s="1"/>
@@ -1909,8 +1901,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="21.95" customHeight="1">
       <c r="A23" s="1"/>
@@ -1923,8 +1915,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="21.95" customHeight="1">
       <c r="A24" s="1"/>
@@ -1937,8 +1929,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="21.95" customHeight="1">
       <c r="A25" s="1"/>
@@ -1951,8 +1943,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="21.95" customHeight="1">
       <c r="A26" s="1"/>
@@ -1965,8 +1957,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="21.95" customHeight="1">
       <c r="A27" s="1"/>
@@ -1979,8 +1971,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="21.95" customHeight="1">
       <c r="A28" s="1"/>
@@ -1993,8 +1985,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="21.95" customHeight="1">
       <c r="A29" s="1"/>
@@ -2007,8 +1999,8 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="21.95" customHeight="1">
       <c r="A30" s="1"/>
@@ -2021,8 +2013,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="21.95" customHeight="1">
       <c r="A31" s="1"/>
@@ -2035,8 +2027,8 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="21.95" customHeight="1"/>
     <row r="33" ht="21.95" customHeight="1"/>
@@ -2051,7 +2043,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7340DEEF-1E31-4BEA-A0F8-A8F0BE07B758}">
           <x14:formula1>
             <xm:f>ref!$D$2:$D$17</xm:f>
@@ -2077,98 +2069,98 @@
     <col min="1" max="1" width="33.625" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="29.25" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="D2" s="12" t="s">
+    <row r="5" spans="1:4">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="D3" s="12" t="s">
+    <row r="6" spans="1:4">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="D4" s="12" t="s">
+    <row r="7" spans="1:4">
+      <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="12" t="s">
+    <row r="8" spans="1:4">
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="12" t="s">
+    <row r="9" spans="1:4">
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="12" t="s">
+    <row r="10" spans="1:4">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="12" t="s">
+    <row r="11" spans="1:4">
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="12" t="s">
+    <row r="12" spans="1:4">
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="12" t="s">
+    <row r="13" spans="1:4">
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="12" t="s">
+    <row r="14" spans="1:4">
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="12" t="s">
+    <row r="15" spans="1:4">
+      <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="12" t="s">
+    <row r="16" spans="1:4">
+      <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="12" t="s">
+    <row r="17" spans="4:4">
+      <c r="D17" s="8" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\09_ihanseol - 2024\20_음용수 - 건양레미콘 2개공 - 관정개발 - 산수개발\04_양수시험\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F144F-613A-4935-8099-0AF71B6B4CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB7666F-26AB-4489-8BC4-373EC09FB3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39120" yWindow="750" windowWidth="31185" windowHeight="20175" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="41730" yWindow="975" windowWidth="31365" windowHeight="19515" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,8 +380,263 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>minhwasoo</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{AC224844-B2A5-4CF4-A75B-2F7FC153086A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>minhwasoo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안정수위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도달시간을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정하면
+이것은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산한다는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">의미
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>즉</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>랜덤으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결정</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>W-1</t>
   </si>
@@ -509,6 +764,14 @@
   </si>
   <si>
     <t>(주)건양레미콘 지하수개발 이용허가를 위한 지하수영향조사</t>
+  </si>
+  <si>
+    <t>stable_time</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정수위 도달시간</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -874,226 +1137,25 @@
     <cellStyle name="표준 2 3" xfId="22" xr:uid="{2C059BE8-8DE9-440B-871D-02E04FA57DC8}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{45FF3674-0159-4243-B7B4-B71CAAF105AC}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1153,10 +1215,247 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1173,31 +1472,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:L31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="17">
-  <autoFilter ref="A1:L31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:M31" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+  <autoFilter ref="A1:M31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:D17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
-  <autoFilter ref="D1:D17" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="14" dataCellStyle="표준 2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+  <autoFilter ref="D1:E28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="1" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="0" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1503,10 +1804,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1522,9 +1823,10 @@
     <col min="10" max="10" width="47.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="26.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="58.5" customHeight="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="58.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1561,8 +1863,11 @@
       <c r="L1" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="21.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,8 +1904,11 @@
       <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M2" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1637,8 +1945,11 @@
       <c r="L3" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M3" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="21.95" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -1651,8 +1962,9 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="21.95" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
@@ -1665,8 +1977,9 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="21.95" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
@@ -1679,8 +1992,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="21.95" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
@@ -1693,8 +2007,9 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="21.95" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
@@ -1707,8 +2022,9 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="21.95" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1721,8 +2037,9 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="21.95" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1735,8 +2052,9 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="21.95" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1749,8 +2067,9 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="21.95" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1763,8 +2082,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="21.95" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1777,8 +2097,9 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="21.95" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1791,8 +2112,9 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="21.95" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1805,8 +2127,9 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="21.95" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1819,8 +2142,9 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="21.95" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1833,8 +2157,9 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="21.95" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1847,8 +2172,9 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="21.95" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1861,8 +2187,9 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="21.95" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1875,8 +2202,9 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="21.95" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1889,8 +2217,9 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="21.95" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1903,8 +2232,9 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="21.95" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1917,8 +2247,9 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="21.95" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1931,8 +2262,9 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="21.95" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1945,8 +2277,9 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="21.95" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1959,8 +2292,9 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="21.95" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1973,8 +2307,9 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="21.95" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1987,8 +2322,9 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="21.95" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2001,8 +2337,9 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="21.95" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2015,8 +2352,9 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" ht="21.95" customHeight="1">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="21.95" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2029,8 +2367,9 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" ht="21.95" customHeight="1"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" ht="21.95" customHeight="1"/>
     <row r="33" ht="21.95" customHeight="1"/>
     <row r="34" ht="21.95" customHeight="1"/>
   </sheetData>
@@ -2043,12 +2382,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7340DEEF-1E31-4BEA-A0F8-A8F0BE07B758}">
           <x14:formula1>
             <xm:f>ref!$D$2:$D$17</xm:f>
           </x14:formula1>
           <xm:sqref>L2:L31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A4D3C20-7ACD-4D32-A13C-14D617EDCC2F}">
+          <x14:formula1>
+            <xm:f>ref!$E$2:$E$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2057,11 +2402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061C8039-FB46-406D-96AD-6834A45FCD63}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061C8039-FB46-406D-96AD-6834A45FCD63}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2070,9 +2415,10 @@
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="29.25" customWidth="1"/>
     <col min="4" max="4" width="26.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="33.75" customHeight="1">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -2082,92 +2428,210 @@
       <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="8">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="8">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="4:4">
+      <c r="E16" s="8">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
       <c r="D17" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="E17" s="8">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB7666F-26AB-4489-8BC4-373EC09FB3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0B2ACA-C8EE-47D0-B2D4-8850B1F4D0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41730" yWindow="975" windowWidth="31365" windowHeight="19515" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -636,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>W-1</t>
   </si>
@@ -771,6 +780,10 @@
   </si>
   <si>
     <t>안정수위 도달시간</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>longterm_test_time</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1072,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,6 +1122,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="$" xfId="2" xr:uid="{039EF926-2D79-4287-984F-F219B0B268D2}"/>
@@ -1137,7 +1156,24 @@
     <cellStyle name="표준 2 3" xfId="22" xr:uid="{2C059BE8-8DE9-440B-871D-02E04FA57DC8}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{45FF3674-0159-4243-B7B4-B71CAAF105AC}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1472,33 +1508,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:M31" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
-  <autoFilter ref="A1:M31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:N31" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19">
+  <autoFilter ref="A1:N31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="D1:E28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="1" dataCellStyle="표준 2"/>
-    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="0" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="2" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="1" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1804,10 +1841,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1824,9 +1861,10 @@
     <col min="11" max="11" width="26.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.125" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="58.5" customHeight="1">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="58.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1866,8 +1904,11 @@
       <c r="M1" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="21.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1905,10 +1946,13 @@
         <v>15</v>
       </c>
       <c r="M2" s="5">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="21.95" customHeight="1">
+        <v>780</v>
+      </c>
+      <c r="N2" s="12">
+        <v>45440.479166666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="21.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1946,10 +1990,13 @@
         <v>15</v>
       </c>
       <c r="M3" s="1">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="21.95" customHeight="1">
+        <v>780</v>
+      </c>
+      <c r="N3" s="13">
+        <v>45440.479166666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="21.95" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -1963,8 +2010,9 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="21.95" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
@@ -1978,8 +2026,9 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="21.95" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
@@ -1993,8 +2042,9 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="21.95" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
@@ -2008,8 +2058,9 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.95" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
@@ -2023,8 +2074,9 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="21.95" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2038,8 +2090,9 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.95" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2053,8 +2106,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="21.95" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2068,8 +2122,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="21.95" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2083,8 +2138,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="21.95" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2098,8 +2154,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="21.95" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2113,8 +2170,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="21.95" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2128,8 +2186,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="21.95" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2143,8 +2202,9 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="21.95" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2158,8 +2218,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="21.95" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2173,8 +2234,9 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="21.95" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2188,8 +2250,9 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="21.95" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2203,8 +2266,9 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="21.95" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2218,8 +2282,9 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="21.95" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2233,8 +2298,9 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="21.95" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2248,8 +2314,9 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="21.95" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2263,8 +2330,9 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="21.95" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2278,8 +2346,9 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="21.95" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2293,8 +2362,9 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="21.95" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2308,8 +2378,9 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="21.95" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2323,8 +2394,9 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="21.95" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2338,8 +2410,9 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" ht="21.95" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2353,8 +2426,9 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" ht="21.95" customHeight="1">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="21.95" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2368,8 +2442,9 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" ht="21.95" customHeight="1"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" ht="21.95" customHeight="1"/>
     <row r="33" ht="21.95" customHeight="1"/>
     <row r="34" ht="21.95" customHeight="1"/>
   </sheetData>

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05_Send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0B2ACA-C8EE-47D0-B2D4-8850B1F4D0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F6B2FD-CCF5-424F-AB0D-A885190A38E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="41070" yWindow="540" windowWidth="31665" windowHeight="20175" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>W-1</t>
   </si>
@@ -761,20 +761,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>충청남도 보령시 남포면 양기리 285-1</t>
-  </si>
-  <si>
-    <t>W-2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>건양레미콘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)건양레미콘 지하수개발 이용허가를 위한 지하수영향조사</t>
-  </si>
-  <si>
     <t>stable_time</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -785,6 +771,21 @@
   <si>
     <t>longterm_test_time</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 당진시 송악읍 반촌리 374-3번지</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>동진아파트 이용허가 유효기간의 연장을 위한 지하수영향조사</t>
+  </si>
+  <si>
+    <t>동진아파트</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>수중모터</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -803,7 +804,7 @@
     <numFmt numFmtId="181" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="182" formatCode="#,##0;&quot;-&quot;#,##0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,6 +926,27 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1085,7 +1107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,6 +1150,15 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="$" xfId="2" xr:uid="{039EF926-2D79-4287-984F-F219B0B268D2}"/>
@@ -1156,23 +1187,64 @@
     <cellStyle name="표준 2 3" xfId="22" xr:uid="{2C059BE8-8DE9-440B-871D-02E04FA57DC8}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{45FF3674-0159-4243-B7B4-B71CAAF105AC}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1269,6 +1341,23 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1508,34 +1597,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:N31" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:N31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
   <autoFilter ref="A1:N31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="D1:E28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="2" dataCellStyle="표준 2"/>
-    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="1" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="4" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="3" dataCellStyle="표준 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+  <autoFilter ref="C1:C11" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="0" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1843,8 +1942,8 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1902,99 +2001,71 @@
         <v>31</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>32</v>
+      <c r="B2" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="D2" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F2" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="H2" s="1">
-        <v>4.8</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="I2" s="1">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>35</v>
+        <v>38.32</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" s="5">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c r="N2" s="12">
-        <v>45440.479166666664</v>
+        <v>45453.451388888891</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>150</v>
-      </c>
-      <c r="F3" s="1">
-        <v>120</v>
-      </c>
-      <c r="G3" s="1">
-        <v>150</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45.3</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1">
-        <v>780</v>
-      </c>
-      <c r="N3" s="13">
-        <v>45440.479166666664</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="21.95" customHeight="1">
       <c r="A4" s="1"/>
@@ -2457,7 +2528,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7340DEEF-1E31-4BEA-A0F8-A8F0BE07B758}">
           <x14:formula1>
             <xm:f>ref!$D$2:$D$17</xm:f>
@@ -2470,6 +2541,12 @@
           </x14:formula1>
           <xm:sqref>M2:M31</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03E0BB34-266E-495F-83FF-98FFAA1A60B9}">
+          <x14:formula1>
+            <xm:f>ref!$C$2:$C$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2481,7 +2558,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2500,14 +2577,20 @@
       <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="C1" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
       <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
@@ -2516,6 +2599,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
@@ -2524,6 +2610,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
@@ -2532,6 +2621,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
@@ -2540,6 +2632,9 @@
       </c>
     </row>
     <row r="6" spans="1:5">
+      <c r="C6" s="8">
+        <v>7.5</v>
+      </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2548,6 +2643,9 @@
       </c>
     </row>
     <row r="7" spans="1:5">
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
@@ -2556,6 +2654,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="C8" s="8">
+        <v>15</v>
+      </c>
       <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2564,6 +2665,9 @@
       </c>
     </row>
     <row r="9" spans="1:5">
+      <c r="C9" s="8">
+        <v>20</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
@@ -2572,6 +2676,9 @@
       </c>
     </row>
     <row r="10" spans="1:5">
+      <c r="C10" s="8">
+        <v>25</v>
+      </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
@@ -2580,6 +2687,9 @@
       </c>
     </row>
     <row r="11" spans="1:5">
+      <c r="C11" s="8">
+        <v>30</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
@@ -2705,8 +2815,9 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F6B2FD-CCF5-424F-AB0D-A885190A38E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30C2853-F78D-4209-83DF-8BA056ACE702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41070" yWindow="540" windowWidth="31665" windowHeight="20175" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -773,19 +773,18 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>충청남도 당진시 송악읍 반촌리 374-3번지</t>
+    <t>수중모터</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 당진시 순성면 순성로 453-30번지</t>
+  </si>
+  <si>
+    <t>순성중명아파트 이용허가 유효기간의 연장을 위한 지하수영향조사보고서</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>동진아파트 이용허가 유효기간의 연장을 위한 지하수영향조사</t>
-  </si>
-  <si>
-    <t>동진아파트</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>수중모터</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <t>순성중명아파트</t>
   </si>
 </sst>
 </file>
@@ -929,14 +928,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -947,6 +938,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1107,7 +1106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,14 +1149,11 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1942,8 +1938,8 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2011,44 +2007,44 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>35</v>
+      <c r="B2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="1">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>200</v>
       </c>
       <c r="F2" s="1">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H2" s="1">
-        <v>9.4700000000000006</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="I2" s="1">
-        <v>38.32</v>
+        <v>25.33</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="5">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="N2" s="12">
-        <v>45453.451388888891</v>
+        <v>45454.472222222219</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="21.95" customHeight="1">
@@ -2577,8 +2573,8 @@
       <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>38</v>
+      <c r="C1" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>14</v>

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\10_ihanseol - 2025\01_생활용 - 우성농공단지, 3개공 - (주)동해엔지니어링\04_양수시험\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30C2853-F78D-4209-83DF-8BA056ACE702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42FBE32-9CAD-4D99-9ACC-9F611F2CEEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="39780" yWindow="345" windowWidth="29355" windowHeight="19890" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ref" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="StableTime" sheetId="3" r:id="rId2"/>
+    <sheet name="ref" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -645,7 +646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>W-1</t>
   </si>
@@ -774,17 +775,34 @@
   </si>
   <si>
     <t>수중모터</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청남도 당진시 순성면 순성로 453-30번지</t>
-  </si>
-  <si>
-    <t>순성중명아파트 이용허가 유효기간의 연장을 위한 지하수영향조사보고서</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>W-2</t>
+  </si>
+  <si>
+    <t>충청남도 공주시 우성면 보흥리 425-4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>순성중명아파트</t>
+    <t>W-3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>우성농공단지 지하수 이용허가 유효기간의 연장을 위한 지하수영향조사보고서</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>우성농공단지</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 공주시 우성면 보흥리 590-2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 공주시 우성면 보흥리 255</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -803,7 +821,7 @@
     <numFmt numFmtId="181" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="182" formatCode="#,##0;&quot;-&quot;#,##0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,23 +929,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -938,14 +939,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1106,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,23 +1130,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1592,6 +1579,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>675342</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>208827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC9FBE6-414B-C0D6-F97B-352499582831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="295275"/>
+          <a:ext cx="7466667" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:N31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
   <autoFilter ref="A1:N31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
@@ -1637,9 +1673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1677,7 +1713,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1783,7 +1819,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1925,7 +1961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1934,12 +1970,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CA69D7-2D82-4ECE-B16F-3C0D42475432}">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2008,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>200</v>
@@ -2023,61 +2060,117 @@
         <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H2" s="1">
-        <v>9.4499999999999993</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="I2" s="1">
-        <v>25.33</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>37</v>
+        <v>43.5</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="5">
+        <v>600</v>
+      </c>
+      <c r="N2" s="10">
+        <v>45699.472222222219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1">
+        <v>250</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10.11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>54.37</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="5">
+        <v>600</v>
+      </c>
+      <c r="N3" s="10">
+        <v>45699.472222222219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="5">
-        <v>540</v>
-      </c>
-      <c r="N2" s="12">
-        <v>45454.472222222219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="B4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>83</v>
+      </c>
+      <c r="G4" s="1">
+        <v>135</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I4" s="1">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1">
+        <v>600</v>
+      </c>
+      <c r="N4" s="10">
+        <v>45699.472222222219</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="21.95" customHeight="1">
       <c r="A5" s="1"/>
@@ -2524,7 +2617,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7340DEEF-1E31-4BEA-A0F8-A8F0BE07B758}">
           <x14:formula1>
             <xm:f>ref!$D$2:$D$17</xm:f>
@@ -2550,6 +2643,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7660C6B-5FD5-4BD9-9EB7-DD7D874E2F5C}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061C8039-FB46-406D-96AD-6834A45FCD63}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -2573,7 +2685,7 @@
       <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="8" t="s">

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\10_ihanseol - 2025\01_생활용 - 우성농공단지, 3개공 - (주)동해엔지니어링\04_양수시험\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12_dev\02_Excel2\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42FBE32-9CAD-4D99-9ACC-9F611F2CEEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C43FE2-DF24-45E3-81B3-AE6F41D4F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="345" windowWidth="29355" windowHeight="19890" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="4890" yWindow="0" windowWidth="32055" windowHeight="19905" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -781,35 +781,29 @@
     <t>W-2</t>
   </si>
   <si>
-    <t>충청남도 공주시 우성면 보흥리 425-4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>충청남도 보령시 주교면 주교리 903-15번지</t>
+  </si>
+  <si>
+    <t>대천유통(주) 지하수 이용허가 유효기간의 연장을 위한 지하수영향조사보고서</t>
+  </si>
+  <si>
+    <t>대천유통㈜</t>
+  </si>
+  <si>
+    <t>충청남도 보령시 주교면 주교리 903-19번지</t>
   </si>
   <si>
     <t>W-3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>우성농공단지 지하수 이용허가 유효기간의 연장을 위한 지하수영향조사보고서</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>우성농공단지</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청남도 공주시 우성면 보흥리 590-2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청남도 공주시 우성면 보흥리 255</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 보령시 주교면 주교리 903-9번지</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
@@ -820,6 +814,8 @@
     <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="182" formatCode="#,##0;&quot;-&quot;#,##0"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1050,7 +1046,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,8 +1094,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,10 +1132,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1143,7 +1154,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="$" xfId="2" xr:uid="{039EF926-2D79-4287-984F-F219B0B268D2}"/>
     <cellStyle name="$_db진흥" xfId="5" xr:uid="{E662F74D-8871-4960-8BE3-82FC365DE219}"/>
     <cellStyle name="$_SE40" xfId="6" xr:uid="{6BCE639C-D9A3-485B-9568-372B5FDCC59B}"/>
@@ -1155,7 +1166,9 @@
     <cellStyle name="Header2" xfId="16" xr:uid="{A1D1E844-2E69-4560-8EF0-5AA0EB3E6136}"/>
     <cellStyle name="백분율 2" xfId="23" xr:uid="{34E387D3-1302-4D0D-ACC4-0A1D5B8C524C}"/>
     <cellStyle name="쉼표 [0] 2" xfId="21" xr:uid="{1E2F307F-03C1-4DBB-8477-537207966664}"/>
+    <cellStyle name="쉼표 [0] 2 2" xfId="26" xr:uid="{9C98B891-4488-41DC-B82E-C721DFE1D727}"/>
     <cellStyle name="쉼표 2" xfId="18" xr:uid="{23B2615C-B39E-4A46-B5A2-28CC28CABC7D}"/>
+    <cellStyle name="쉼표 2 2" xfId="25" xr:uid="{F4D62024-2AAE-46D8-8BF3-A1B806BD49F4}"/>
     <cellStyle name="열어본 하이퍼링크" xfId="7" xr:uid="{2FF013C6-8046-4D76-BB36-988F6EEC443F}"/>
     <cellStyle name="원" xfId="8" xr:uid="{B284B404-8DBB-499E-B012-848DB9B239E2}"/>
     <cellStyle name="원_경기도지하수관리계획_1.28_경기본부의견적용" xfId="9" xr:uid="{C38C2859-650B-4D36-B914-D063269B2421}"/>
@@ -1976,7 +1989,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2041,135 +2054,135 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="12">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="12">
         <v>200</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="12">
+        <v>90</v>
+      </c>
+      <c r="G2" s="12">
+        <v>200</v>
+      </c>
+      <c r="H2" s="12">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="I2" s="12">
+        <v>43.5</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="13">
+        <v>660</v>
+      </c>
+      <c r="N2" s="14">
+        <v>45721.472222222219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12">
+        <v>200</v>
+      </c>
+      <c r="F3" s="12">
+        <v>90</v>
+      </c>
+      <c r="G3" s="12">
+        <v>200</v>
+      </c>
+      <c r="H3" s="12">
+        <v>10.11</v>
+      </c>
+      <c r="I3" s="12">
+        <v>54.37</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="13">
+        <v>660</v>
+      </c>
+      <c r="N3" s="14">
+        <v>45721.472222222219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12">
+        <v>200</v>
+      </c>
+      <c r="G4" s="12">
         <v>100</v>
       </c>
-      <c r="G2" s="1">
-        <v>145</v>
-      </c>
-      <c r="H2" s="1">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="I2" s="1">
-        <v>43.5</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="H4" s="12">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I4" s="12">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="5">
-        <v>600</v>
-      </c>
-      <c r="N2" s="10">
-        <v>45699.472222222219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>200</v>
-      </c>
-      <c r="F3" s="1">
-        <v>200</v>
-      </c>
-      <c r="G3" s="1">
-        <v>250</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10.11</v>
-      </c>
-      <c r="I3" s="1">
-        <v>54.37</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="5">
-        <v>600</v>
-      </c>
-      <c r="N3" s="10">
-        <v>45699.472222222219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>200</v>
-      </c>
-      <c r="F4" s="1">
-        <v>83</v>
-      </c>
-      <c r="G4" s="1">
-        <v>135</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="I4" s="1">
-        <v>36.520000000000003</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="1">
-        <v>600</v>
-      </c>
-      <c r="N4" s="10">
-        <v>45699.472222222219</v>
+      <c r="L4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="12">
+        <v>660</v>
+      </c>
+      <c r="N4" s="14">
+        <v>45721.472222222219</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="21.95" customHeight="1">
@@ -2685,7 +2698,7 @@
       <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="8" t="s">

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12_dev\02_Excel2\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\12_dev\02_Excel2\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C43FE2-DF24-45E3-81B3-AE6F41D4F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B33C78-F820-483E-BC43-B6313243840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="0" windowWidth="32055" windowHeight="19905" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>W-1</t>
   </si>
@@ -797,13 +797,21 @@
   </si>
   <si>
     <t>충청남도 보령시 주교면 주교리 903-9번지</t>
+  </si>
+  <si>
+    <t>bedrock</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑운모화강암</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="10">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
@@ -814,8 +822,6 @@
     <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="182" formatCode="#,##0;&quot;-&quot;#,##0"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1094,14 +1100,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,15 +1139,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1183,7 +1180,24 @@
     <cellStyle name="표준 2 3" xfId="22" xr:uid="{2C059BE8-8DE9-440B-871D-02E04FA57DC8}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{45FF3674-0159-4243-B7B4-B71CAAF105AC}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1642,44 +1656,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:N31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
-  <autoFilter ref="A1:N31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:O31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23">
+  <autoFilter ref="A1:O31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{2C466B12-00D4-41F8-B2FE-79A40FAC6C1E}" name="bedrock" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="D1:E28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="4" dataCellStyle="표준 2"/>
-    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="3" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="5" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="4" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="C1:C11" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="0" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="1" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1986,10 +2001,10 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2007,9 +2022,10 @@
     <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.125" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="58.5" customHeight="1">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="58.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2052,140 +2068,152 @@
       <c r="N1" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="O1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="1">
         <v>200</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="1">
         <v>90</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="1">
         <v>200</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="1">
         <v>43.5</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="5">
         <v>660</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="11">
         <v>45721.472222222219</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="O2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="1">
         <v>12</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="1">
         <v>200</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="1">
         <v>90</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="1">
         <v>200</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="1">
         <v>10.11</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="1">
         <v>54.37</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="5">
         <v>660</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="11">
         <v>45721.472222222219</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="O3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="1">
         <v>200</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="1">
         <v>200</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="1">
         <v>8.9499999999999993</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="1">
         <v>36.520000000000003</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="1">
         <v>660</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="11">
         <v>45721.472222222219</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21.95" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
@@ -2200,8 +2228,9 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="21.95" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
@@ -2216,8 +2245,9 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="21.95" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
@@ -2232,8 +2262,9 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="21.95" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
@@ -2248,8 +2279,9 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="21.95" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2264,8 +2296,9 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="21.95" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2280,8 +2313,9 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="21.95" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2296,8 +2330,9 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="21.95" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2312,8 +2347,9 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="21.95" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2328,8 +2364,9 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="21.95" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2344,8 +2381,9 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="21.95" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2360,8 +2398,9 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="21.95" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2376,8 +2415,9 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" ht="21.95" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2392,8 +2432,9 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="21.95" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2408,8 +2449,9 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="21.95" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2424,8 +2466,9 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="21.95" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2440,8 +2483,9 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="21.95" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2456,8 +2500,9 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="21.95" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2472,8 +2517,9 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="21.95" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2488,8 +2534,9 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="21.95" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2504,8 +2551,9 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="21.95" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2520,8 +2568,9 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="21.95" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2536,8 +2585,9 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="21.95" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2552,8 +2602,9 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="21.95" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2568,8 +2619,9 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="21.95" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2584,8 +2636,9 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="21.95" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2600,8 +2653,9 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" ht="21.95" customHeight="1">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" ht="21.95" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2616,8 +2670,9 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" ht="21.95" customHeight="1"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" ht="21.95" customHeight="1"/>
     <row r="33" ht="21.95" customHeight="1"/>
     <row r="34" ht="21.95" customHeight="1"/>
   </sheetData>

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\12_dev\02_Excel2\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B33C78-F820-483E-BC43-B6313243840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52945431-8634-4A5C-BC33-33EFB6A10754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>W-1</t>
   </si>
@@ -663,10 +663,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>natual</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>stable</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -679,10 +675,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>well_rad</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -781,29 +773,60 @@
     <t>W-2</t>
   </si>
   <si>
-    <t>충청남도 보령시 주교면 주교리 903-15번지</t>
-  </si>
-  <si>
-    <t>대천유통(주) 지하수 이용허가 유효기간의 연장을 위한 지하수영향조사보고서</t>
-  </si>
-  <si>
-    <t>대천유통㈜</t>
-  </si>
-  <si>
-    <t>충청남도 보령시 주교면 주교리 903-19번지</t>
-  </si>
-  <si>
     <t>W-3</t>
   </si>
   <si>
-    <t>충청남도 보령시 주교면 주교리 903-9번지</t>
+    <t>국립광주박물관 도자문화관 건립 지열공사</t>
+  </si>
+  <si>
+    <t>국립광주박물관 도자문화관 건립 지열공사</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>W-4</t>
+  </si>
+  <si>
+    <t>W-5</t>
+  </si>
+  <si>
+    <t>W-6</t>
+  </si>
+  <si>
+    <t>W-7</t>
+  </si>
+  <si>
+    <t>W-8</t>
+  </si>
+  <si>
+    <t>W-9</t>
+  </si>
+  <si>
+    <t>W-10</t>
+  </si>
+  <si>
+    <t>W-11</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 매곡동 430번지</t>
+  </si>
+  <si>
+    <t>국립광주박물관</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>well_diameter</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>bedrock</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>흑운모화강암</t>
+    <t>화강편마암</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1107,7 +1130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,11 +1167,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1196,6 +1216,267 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1332,267 +1613,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1656,45 +1676,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:O31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:O31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="15">
   <autoFilter ref="A1:O31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{2C466B12-00D4-41F8-B2FE-79A40FAC6C1E}" name="bedrock" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_diameter" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natural" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{F41AF8F5-2F98-4335-B32B-C6034E4B7185}" name="bedrock" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="D1:E28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="5" dataCellStyle="표준 2"/>
-    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="4" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="22" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="21" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="C1:C11" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="1" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="18" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2004,7 +2024,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2012,7 +2032,8 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="39.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="2" customWidth="1"/>
@@ -2022,7 +2043,7 @@
     <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.125" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="58.5" customHeight="1">
@@ -2030,16 +2051,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2048,306 +2069,546 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="21.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1">
         <v>200</v>
       </c>
       <c r="F2" s="1">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="G2" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H2" s="1">
-        <v>8.4499999999999993</v>
+        <v>10.24</v>
       </c>
       <c r="I2" s="1">
-        <v>43.5</v>
+        <v>23.5</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="5">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="N2" s="11">
-        <v>45721.472222222219</v>
+        <v>45722.444444444445</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="21.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1">
         <v>200</v>
       </c>
       <c r="F3" s="1">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="G3" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1">
-        <v>10.11</v>
+        <v>10.53</v>
       </c>
       <c r="I3" s="1">
-        <v>54.37</v>
+        <v>25.45</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" s="5">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="N3" s="11">
-        <v>45721.472222222219</v>
+        <v>45722.444444444445</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21.95" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1">
         <v>200</v>
       </c>
       <c r="F4" s="1">
+        <v>500</v>
+      </c>
+      <c r="G4" s="1">
+        <v>120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10.62</v>
+      </c>
+      <c r="I4" s="1">
+        <v>28.32</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1">
+        <v>540</v>
+      </c>
+      <c r="N4" s="11">
+        <v>45722.444444444445</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <v>200</v>
       </c>
-      <c r="G4" s="1">
-        <v>100</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="I4" s="1">
-        <v>36.520000000000003</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="F5" s="1">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10.33</v>
+      </c>
+      <c r="I5" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1">
+        <v>540</v>
+      </c>
+      <c r="N5" s="11">
+        <v>45722.444444444445</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="1">
-        <v>660</v>
-      </c>
-      <c r="N4" s="11">
-        <v>45721.472222222219</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>500</v>
+      </c>
+      <c r="G6" s="1">
+        <v>120</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11.24</v>
+      </c>
+      <c r="I6" s="1">
+        <v>28.59</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1">
+        <v>540</v>
+      </c>
+      <c r="N6" s="11">
+        <v>45722.444444444445</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>500</v>
+      </c>
+      <c r="G7" s="1">
+        <v>120</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10.95</v>
+      </c>
+      <c r="I7" s="1">
+        <v>28.11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="1">
+        <v>540</v>
+      </c>
+      <c r="N7" s="11">
+        <v>45722.444444444445</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>500</v>
+      </c>
+      <c r="G8" s="1">
+        <v>120</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11.39</v>
+      </c>
+      <c r="I8" s="1">
+        <v>29.35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1">
+        <v>540</v>
+      </c>
+      <c r="N8" s="11">
+        <v>45722.444444444445</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>500</v>
+      </c>
+      <c r="G9" s="1">
+        <v>120</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11.52</v>
+      </c>
+      <c r="I9" s="1">
+        <v>28.46</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="1">
+        <v>540</v>
+      </c>
+      <c r="N9" s="11">
+        <v>45722.444444444445</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>500</v>
+      </c>
+      <c r="G10" s="1">
+        <v>120</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10.63</v>
+      </c>
+      <c r="I10" s="1">
+        <v>29.47</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="1">
+        <v>540</v>
+      </c>
+      <c r="N10" s="11">
+        <v>45722.444444444445</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200</v>
+      </c>
+      <c r="F11" s="1">
+        <v>500</v>
+      </c>
+      <c r="G11" s="1">
+        <v>120</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10.76</v>
+      </c>
+      <c r="I11" s="1">
+        <v>28.93</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="1">
+        <v>540</v>
+      </c>
+      <c r="N11" s="11">
+        <v>45722.444444444445</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>500</v>
+      </c>
+      <c r="G12" s="1">
+        <v>120</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="I12" s="1">
+        <v>29.28</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1">
+        <v>540</v>
+      </c>
+      <c r="N12" s="11">
+        <v>45722.444444444445</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="21.95" customHeight="1">
       <c r="A13" s="1"/>
@@ -2748,19 +3009,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2768,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
@@ -2779,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8">
         <v>120</v>
@@ -2790,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8">
         <v>140</v>
@@ -2801,7 +3062,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8">
         <v>160</v>
@@ -2812,7 +3073,7 @@
         <v>7.5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8">
         <v>180</v>
@@ -2823,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8">
         <v>240</v>
@@ -2834,7 +3095,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="8">
         <v>300</v>
@@ -2845,7 +3106,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8">
         <v>360</v>
@@ -2856,7 +3117,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="8">
         <v>420</v>
@@ -2867,7 +3128,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="8">
         <v>480</v>
@@ -2875,7 +3136,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="8">
         <v>540</v>
@@ -2883,7 +3144,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="8">
         <v>600</v>
@@ -2891,7 +3152,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="8">
         <v>660</v>
@@ -2899,7 +3160,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="8">
         <v>720</v>
@@ -2907,7 +3168,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="8">
         <v>780</v>
@@ -2915,7 +3176,7 @@
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="8">
         <v>840</v>

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52945431-8634-4A5C-BC33-33EFB6A10754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDB7748-A63E-4C7B-8E20-708679191F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
@@ -646,7 +646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>W-1</t>
   </si>
@@ -776,41 +776,30 @@
     <t>W-3</t>
   </si>
   <si>
-    <t>국립광주박물관 도자문화관 건립 지열공사</t>
-  </si>
-  <si>
-    <t>국립광주박물관 도자문화관 건립 지열공사</t>
+    <t>호계1 동 행정복지센터</t>
+  </si>
+  <si>
+    <t>경기도 안양시 동안구 호계동 1001-38번지</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>W-4</t>
-  </si>
-  <si>
-    <t>W-5</t>
-  </si>
-  <si>
-    <t>W-6</t>
-  </si>
-  <si>
-    <t>W-7</t>
-  </si>
-  <si>
-    <t>W-8</t>
-  </si>
-  <si>
-    <t>W-9</t>
-  </si>
-  <si>
-    <t>W-10</t>
-  </si>
-  <si>
-    <t>W-11</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 매곡동 430번지</t>
-  </si>
-  <si>
-    <t>국립광주박물관</t>
+    <t>경기도 안양시 동안구 호계동 1001-28번지</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>호계1동 행정복지센터 건립 공사중 지열시스템 공사</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedrock</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑운모호상편마암</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -818,15 +807,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>natural</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bedrock</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>화강편마암</t>
+    <t>ph</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +973,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1074,6 +1055,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1130,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,10 +1204,31 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1200,285 +1261,7 @@
     <cellStyle name="표준 2 3" xfId="22" xr:uid="{2C059BE8-8DE9-440B-871D-02E04FA57DC8}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{45FF3674-0159-4243-B7B4-B71CAAF105AC}"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <b val="0"/>
@@ -1613,6 +1396,422 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1676,45 +1875,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:O31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="15">
-  <autoFilter ref="A1:O31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_diameter" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natural" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{F41AF8F5-2F98-4335-B32B-C6034E4B7185}" name="bedrock" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:P31" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="A1:P31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_diameter" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natural" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{3CD6EF40-B05B-4C81-9E87-C143C135F695}" name="bedrock" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{87BF1DD3-1D67-490E-BE05-E27BB394B7DD}" name="ph" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="D1:E28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="22" dataCellStyle="표준 2"/>
-    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="21" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="4" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="3" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="C1:C11" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="18" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="0" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2021,10 +2221,10 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2033,7 +2233,7 @@
     <col min="2" max="2" width="39.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="2" customWidth="1"/>
@@ -2043,35 +2243,35 @@
     <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.125" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="15" max="15" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -2086,19 +2286,22 @@
       <c r="M1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -2107,45 +2310,48 @@
         <v>36</v>
       </c>
       <c r="E2" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1">
         <v>500</v>
       </c>
       <c r="G2" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>10.24</v>
+        <v>11.35</v>
       </c>
       <c r="I2" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="5" t="s">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="1">
         <v>540</v>
       </c>
-      <c r="N2" s="11">
-        <v>45722.444444444445</v>
+      <c r="N2" s="16">
+        <v>45726.430555555555</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="5">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
+      <c r="B3" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -2154,45 +2360,48 @@
         <v>36</v>
       </c>
       <c r="E3" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F3" s="1">
         <v>500</v>
       </c>
       <c r="G3" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>10.53</v>
+        <v>11.43</v>
       </c>
       <c r="I3" s="1">
-        <v>25.45</v>
-      </c>
-      <c r="J3" s="12" t="s">
+        <v>35.32</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="1">
         <v>540</v>
       </c>
-      <c r="N3" s="11">
-        <v>45722.444444444445</v>
+      <c r="N3" s="16">
+        <v>45726.430555555555</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
+      <c r="B4" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -2201,417 +2410,188 @@
         <v>36</v>
       </c>
       <c r="E4" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1">
         <v>500</v>
       </c>
       <c r="G4" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>10.62</v>
+        <v>10.94</v>
       </c>
       <c r="I4" s="1">
-        <v>28.32</v>
-      </c>
-      <c r="J4" s="12" t="s">
+        <v>37.46</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="1">
         <v>540</v>
       </c>
-      <c r="N4" s="11">
-        <v>45722.444444444445</v>
+      <c r="N4" s="16">
+        <v>45726.430555555555</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1">
-        <v>200</v>
-      </c>
-      <c r="F5" s="1">
-        <v>500</v>
-      </c>
-      <c r="G5" s="1">
-        <v>120</v>
-      </c>
-      <c r="H5" s="1">
-        <v>10.33</v>
-      </c>
-      <c r="I5" s="1">
-        <v>27.74</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1">
-        <v>540</v>
-      </c>
-      <c r="N5" s="11">
-        <v>45722.444444444445</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1">
-        <v>200</v>
-      </c>
-      <c r="F6" s="1">
-        <v>500</v>
-      </c>
-      <c r="G6" s="1">
-        <v>120</v>
-      </c>
-      <c r="H6" s="1">
-        <v>11.24</v>
-      </c>
-      <c r="I6" s="1">
-        <v>28.59</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="1">
-        <v>540</v>
-      </c>
-      <c r="N6" s="11">
-        <v>45722.444444444445</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1">
-        <v>200</v>
-      </c>
-      <c r="F7" s="1">
-        <v>500</v>
-      </c>
-      <c r="G7" s="1">
-        <v>120</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10.95</v>
-      </c>
-      <c r="I7" s="1">
-        <v>28.11</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="1">
-        <v>540</v>
-      </c>
-      <c r="N7" s="11">
-        <v>45722.444444444445</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1">
-        <v>200</v>
-      </c>
-      <c r="F8" s="1">
-        <v>500</v>
-      </c>
-      <c r="G8" s="1">
-        <v>120</v>
-      </c>
-      <c r="H8" s="1">
-        <v>11.39</v>
-      </c>
-      <c r="I8" s="1">
-        <v>29.35</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1">
-        <v>540</v>
-      </c>
-      <c r="N8" s="11">
-        <v>45722.444444444445</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1">
-        <v>200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>500</v>
-      </c>
-      <c r="G9" s="1">
-        <v>120</v>
-      </c>
-      <c r="H9" s="1">
-        <v>11.52</v>
-      </c>
-      <c r="I9" s="1">
-        <v>28.46</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="1">
-        <v>540</v>
-      </c>
-      <c r="N9" s="11">
-        <v>45722.444444444445</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1">
-        <v>200</v>
-      </c>
-      <c r="F10" s="1">
-        <v>500</v>
-      </c>
-      <c r="G10" s="1">
-        <v>120</v>
-      </c>
-      <c r="H10" s="1">
-        <v>10.63</v>
-      </c>
-      <c r="I10" s="1">
-        <v>29.47</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="1">
-        <v>540</v>
-      </c>
-      <c r="N10" s="11">
-        <v>45722.444444444445</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1">
-        <v>200</v>
-      </c>
-      <c r="F11" s="1">
-        <v>500</v>
-      </c>
-      <c r="G11" s="1">
-        <v>120</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10.76</v>
-      </c>
-      <c r="I11" s="1">
-        <v>28.93</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="1">
-        <v>540</v>
-      </c>
-      <c r="N11" s="11">
-        <v>45722.444444444445</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1">
-        <v>200</v>
-      </c>
-      <c r="F12" s="1">
-        <v>500</v>
-      </c>
-      <c r="G12" s="1">
-        <v>120</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10.55</v>
-      </c>
-      <c r="I12" s="1">
-        <v>29.28</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="1">
-        <v>540</v>
-      </c>
-      <c r="N12" s="11">
-        <v>45722.444444444445</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="P4" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2624,11 +2604,12 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A14" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A14" s="13"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2641,11 +2622,12 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A15" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A15" s="13"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2658,11 +2640,12 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A16" s="13"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2675,11 +2658,12 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A17" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2692,11 +2676,12 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A18" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A18" s="13"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2709,11 +2694,12 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A19" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A19" s="13"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2726,11 +2712,12 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A20" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A20" s="13"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2743,11 +2730,12 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A21" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A21" s="13"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2760,11 +2748,12 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A22" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A22" s="13"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2777,11 +2766,12 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A23" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A23" s="13"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2794,11 +2784,12 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A24" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2811,11 +2802,12 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="17"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A25" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2828,11 +2820,12 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A26" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2845,11 +2838,12 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A27" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2862,11 +2856,12 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A28" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A28" s="13"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2879,11 +2874,12 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A29" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A29" s="13"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2896,11 +2892,12 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A30" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A30" s="13"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2913,27 +2910,29 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="21.95" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" ht="21.95" customHeight="1"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" ht="21.95" customHeight="1"/>
     <row r="33" ht="21.95" customHeight="1"/>
     <row r="34" ht="21.95" customHeight="1"/>
   </sheetData>
@@ -2946,7 +2945,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7340DEEF-1E31-4BEA-A0F8-A8F0BE07B758}">
           <x14:formula1>
             <xm:f>ref!$D$2:$D$17</xm:f>
